--- a/com.jumiafoods/src/test/resources/TestData.xlsx
+++ b/com.jumiafoods/src/test/resources/TestData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4CA81B44-2667-4AEF-A81D-CD358B658016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91807\git\JumiaFoods1\com.jumiafoods\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7371BF-F010-491C-8C66-AAA4D4B52580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2550" windowWidth="20790" windowHeight="11820" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddMenu (4)" sheetId="16" r:id="rId1"/>
@@ -19,12 +24,13 @@
     <sheet name="AddResto (4)" sheetId="11" r:id="rId9"/>
     <sheet name="CategoryList" sheetId="8" r:id="rId10"/>
     <sheet name="RestoList" sheetId="9" r:id="rId11"/>
-    <sheet name="DP" sheetId="17" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId12"/>
+    <sheet name="DP" sheetId="17" r:id="rId13"/>
+    <sheet name="kala" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>d_name</t>
   </si>
@@ -311,12 +317,43 @@
   </si>
   <si>
     <t>E:\Test Yantra\Project\images\download (10).jpg</t>
+  </si>
+  <si>
+    <t>₹61,999</t>
+  </si>
+  <si>
+    <t>₹62,990</t>
+  </si>
+  <si>
+    <t>₹94,900</t>
+  </si>
+  <si>
+    <t>₹89,999</t>
+  </si>
+  <si>
+    <t>₹80,999</t>
+  </si>
+  <si>
+    <t>₹1,32,990</t>
+  </si>
+  <si>
+    <t>₹55,990</t>
+  </si>
+  <si>
+    <t>₹36,999</t>
+  </si>
+  <si>
+    <t>₹53,999</t>
+  </si>
+  <si>
+    <t>₹91,990</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,9 +690,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -671,7 +708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -679,7 +716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -700,62 +737,62 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -774,92 +811,92 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.453125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -870,6 +907,94 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8931B1-10B6-4516-9C61-192B73D87E74}">
+  <dimension ref="A2:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5834F00-DBD5-44A9-A999-8510ECD25F89}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -877,9 +1002,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -890,7 +1015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -901,7 +1026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -912,7 +1037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -924,6 +1049,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384EEB93-6CF8-445B-ABE2-7B58D3FBF8D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -936,9 +1073,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -954,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -983,9 +1120,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1030,9 +1167,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1077,13 +1214,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.7265625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1120,12 +1257,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1186,17 +1323,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A11113-2C6E-4776-B2A0-57DF0CE238F5}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.1796875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="44.453125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1261,13 +1398,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="90.453125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="44.453125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1420,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1332,13 +1469,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.1796875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="44.453125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
